--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -601,7 +598,7 @@
       <c r="H3" s="2" t="n">
         <v>45986.6796412037</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -609,10 +606,8 @@
           <t>16:18:41</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K3" t="n">
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -661,7 +656,7 @@
       <c r="H4" s="2" t="n">
         <v>45984.1599074074</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -669,10 +664,8 @@
           <t>03:50:16</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K4" t="n">
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -721,7 +714,7 @@
       <c r="H5" s="2" t="n">
         <v>45983.09383101852</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -729,10 +722,8 @@
           <t>02:15:07</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K5" t="n">
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -781,7 +772,7 @@
       <c r="H6" s="2" t="n">
         <v>45981.98050925926</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -789,10 +780,8 @@
           <t>23:31:56</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K6" t="n">
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -841,7 +830,7 @@
       <c r="H7" s="2" t="n">
         <v>45980.02355324074</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -849,10 +838,8 @@
           <t>00:33:55</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K7" t="n">
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
